--- a/SetonHillTestData.xlsx
+++ b/SetonHillTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tennisvish/Downloads/Fall_24_Walter_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE3DCAA-897D-1043-B7E7-4F51614493D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A975C653-91C4-6B4A-93AB-7C0736427C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="14740" windowHeight="17200" xr2:uid="{1C4526DE-0CF1-3E43-9E17-82D78C538EC0}"/>
+    <workbookView xWindow="5040" yWindow="500" windowWidth="14740" windowHeight="17200" xr2:uid="{1C4526DE-0CF1-3E43-9E17-82D78C538EC0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="58">
   <si>
     <t>Type</t>
   </si>
@@ -171,13 +171,52 @@
   </si>
   <si>
     <t>Wild Type23</t>
+  </si>
+  <si>
+    <t>22 wks</t>
+  </si>
+  <si>
+    <t>Maybe</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Type (cntp_name)</t>
+  </si>
+  <si>
+    <t>Mus musculus</t>
+  </si>
+  <si>
+    <t>Rattus norvegicus</t>
+  </si>
+  <si>
+    <t>Mmus00001388</t>
+  </si>
+  <si>
+    <t>Mmus00001397</t>
+  </si>
+  <si>
+    <t>Mmus00001398</t>
+  </si>
+  <si>
+    <t>Mmus00001790</t>
+  </si>
+  <si>
+    <t>Mmus00001896</t>
+  </si>
+  <si>
+    <t>Mmus00001799</t>
+  </si>
+  <si>
+    <t>Barcode</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -200,8 +239,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -214,8 +258,14 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -238,14 +288,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF1B3C45"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF1B3C45"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF1B3C45"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF1B3C45"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -580,15 +658,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B56EC07-358B-9F4F-B97B-89195746B622}">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -628,8 +706,14 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -669,8 +753,14 @@
       <c r="M2" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -710,8 +800,14 @@
       <c r="M3" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>29</v>
       </c>
@@ -751,8 +847,14 @@
       <c r="M4" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
@@ -790,8 +892,14 @@
       <c r="M5" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>29</v>
       </c>
@@ -831,8 +939,14 @@
       <c r="M6" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
@@ -872,8 +986,14 @@
       <c r="M7" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>29</v>
       </c>
@@ -910,11 +1030,11 @@
       <c r="L8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="M8" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M8" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>29</v>
       </c>
@@ -936,9 +1056,7 @@
       <c r="G9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
         <v>21</v>
       </c>
@@ -955,7 +1073,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
@@ -975,13 +1093,13 @@
         <v>18</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>22</v>
@@ -996,7 +1114,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>29</v>
       </c>
@@ -1027,9 +1145,7 @@
       <c r="J11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K11" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="K11" s="2"/>
       <c r="L11" s="2" t="s">
         <v>35</v>
       </c>
@@ -1037,7 +1153,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>36</v>
       </c>
@@ -1078,7 +1194,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>36</v>
       </c>
@@ -1119,7 +1235,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>36</v>
       </c>
@@ -1160,7 +1276,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>36</v>
       </c>
@@ -1188,20 +1304,16 @@
       <c r="I15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="J15" s="2"/>
       <c r="K15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L15" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="L15" s="2"/>
       <c r="M15" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>38</v>
       </c>
